--- a/Projektvorbereitung/Zeitplan.xlsx
+++ b/Projektvorbereitung/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE0DDB-1463-4FEA-BA6A-600DE3D6A5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685EA346-3FB1-4ACB-9CBA-5E5AAF1B337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,9 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1362,7 +1362,7 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -1920,522 +1920,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2653,15 +2137,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="126"/>
-      <tableStyleElement type="headerRow" dxfId="125"/>
-      <tableStyleElement type="totalRow" dxfId="124"/>
-      <tableStyleElement type="firstColumn" dxfId="123"/>
-      <tableStyleElement type="lastColumn" dxfId="122"/>
-      <tableStyleElement type="firstRowStripe" dxfId="121"/>
-      <tableStyleElement type="secondRowStripe" dxfId="120"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="119"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="118"/>
+      <tableStyleElement type="wholeTable" dxfId="75"/>
+      <tableStyleElement type="headerRow" dxfId="74"/>
+      <tableStyleElement type="totalRow" dxfId="73"/>
+      <tableStyleElement type="firstColumn" dxfId="72"/>
+      <tableStyleElement type="lastColumn" dxfId="71"/>
+      <tableStyleElement type="firstRowStripe" dxfId="70"/>
+      <tableStyleElement type="secondRowStripe" dxfId="69"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="68"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3079,13 +2563,13 @@
   <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="38" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -3097,3217 +2581,3213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="27"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="58"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:71" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="81">
+      <c r="D3" s="76"/>
+      <c r="E3" s="80">
         <v>45639</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="7">
+      <c r="D4" s="76"/>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="77">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="77">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="77">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="77">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="77">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="77">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="77">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="77">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="78">
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="79"/>
+      <c r="BM4" s="77">
         <f>BM5</f>
         <v>45691</v>
       </c>
-      <c r="BN4" s="79"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="79"/>
-      <c r="BQ4" s="79"/>
-      <c r="BR4" s="79"/>
-      <c r="BS4" s="80"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="79"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="73">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="I5" s="72">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
         <v>45635</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="73">
         <f>I5+1</f>
         <v>45636</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="73">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45637</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="73">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="73">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="O5" s="75">
+      <c r="O5" s="74">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P5" s="72">
         <f>O5+1</f>
         <v>45642</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="73">
         <f>P5+1</f>
         <v>45643</v>
       </c>
-      <c r="R5" s="74">
+      <c r="R5" s="73">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="73">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="73">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="73">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="74">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="W5" s="73">
+      <c r="W5" s="72">
         <f>V5+1</f>
         <v>45649</v>
       </c>
-      <c r="X5" s="74">
+      <c r="X5" s="73">
         <f>W5+1</f>
         <v>45650</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="73">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
-      <c r="Z5" s="74">
+      <c r="Z5" s="73">
         <f t="shared" si="0"/>
         <v>45652</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="73">
         <f t="shared" si="0"/>
         <v>45653</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="AB5" s="73">
         <f t="shared" si="0"/>
         <v>45654</v>
       </c>
-      <c r="AC5" s="75">
+      <c r="AC5" s="74">
         <f t="shared" si="0"/>
         <v>45655</v>
       </c>
-      <c r="AD5" s="73">
+      <c r="AD5" s="72">
         <f>AC5+1</f>
         <v>45656</v>
       </c>
-      <c r="AE5" s="74">
+      <c r="AE5" s="73">
         <f>AD5+1</f>
         <v>45657</v>
       </c>
-      <c r="AF5" s="74">
+      <c r="AF5" s="73">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
-      <c r="AG5" s="74">
+      <c r="AG5" s="73">
         <f t="shared" si="0"/>
         <v>45659</v>
       </c>
-      <c r="AH5" s="74">
+      <c r="AH5" s="73">
         <f t="shared" si="0"/>
         <v>45660</v>
       </c>
-      <c r="AI5" s="74">
+      <c r="AI5" s="73">
         <f t="shared" si="0"/>
         <v>45661</v>
       </c>
-      <c r="AJ5" s="75">
+      <c r="AJ5" s="74">
         <f t="shared" si="0"/>
         <v>45662</v>
       </c>
-      <c r="AK5" s="73">
+      <c r="AK5" s="72">
         <f>AJ5+1</f>
         <v>45663</v>
       </c>
-      <c r="AL5" s="74">
+      <c r="AL5" s="73">
         <f>AK5+1</f>
         <v>45664</v>
       </c>
-      <c r="AM5" s="74">
+      <c r="AM5" s="73">
         <f t="shared" si="0"/>
         <v>45665</v>
       </c>
-      <c r="AN5" s="74">
+      <c r="AN5" s="73">
         <f t="shared" si="0"/>
         <v>45666</v>
       </c>
-      <c r="AO5" s="74">
+      <c r="AO5" s="73">
         <f t="shared" si="0"/>
         <v>45667</v>
       </c>
-      <c r="AP5" s="74">
+      <c r="AP5" s="73">
         <f t="shared" si="0"/>
         <v>45668</v>
       </c>
-      <c r="AQ5" s="75">
+      <c r="AQ5" s="74">
         <f t="shared" si="0"/>
         <v>45669</v>
       </c>
-      <c r="AR5" s="73">
+      <c r="AR5" s="72">
         <f>AQ5+1</f>
         <v>45670</v>
       </c>
-      <c r="AS5" s="74">
+      <c r="AS5" s="73">
         <f>AR5+1</f>
         <v>45671</v>
       </c>
-      <c r="AT5" s="74">
+      <c r="AT5" s="73">
         <f t="shared" si="0"/>
         <v>45672</v>
       </c>
-      <c r="AU5" s="74">
+      <c r="AU5" s="73">
         <f t="shared" si="0"/>
         <v>45673</v>
       </c>
-      <c r="AV5" s="74">
+      <c r="AV5" s="73">
         <f t="shared" si="0"/>
         <v>45674</v>
       </c>
-      <c r="AW5" s="74">
+      <c r="AW5" s="73">
         <f t="shared" si="0"/>
         <v>45675</v>
       </c>
-      <c r="AX5" s="75">
+      <c r="AX5" s="74">
         <f t="shared" si="0"/>
         <v>45676</v>
       </c>
-      <c r="AY5" s="73">
+      <c r="AY5" s="72">
         <f>AX5+1</f>
         <v>45677</v>
       </c>
-      <c r="AZ5" s="74">
+      <c r="AZ5" s="73">
         <f>AY5+1</f>
         <v>45678</v>
       </c>
-      <c r="BA5" s="74">
+      <c r="BA5" s="73">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45679</v>
       </c>
-      <c r="BB5" s="74">
+      <c r="BB5" s="73">
         <f t="shared" si="1"/>
         <v>45680</v>
       </c>
-      <c r="BC5" s="74">
+      <c r="BC5" s="73">
         <f t="shared" si="1"/>
         <v>45681</v>
       </c>
-      <c r="BD5" s="74">
+      <c r="BD5" s="73">
         <f t="shared" si="1"/>
         <v>45682</v>
       </c>
-      <c r="BE5" s="75">
+      <c r="BE5" s="74">
         <f t="shared" si="1"/>
         <v>45683</v>
       </c>
-      <c r="BF5" s="73">
+      <c r="BF5" s="72">
         <f>BE5+1</f>
         <v>45684</v>
       </c>
-      <c r="BG5" s="74">
+      <c r="BG5" s="73">
         <f>BF5+1</f>
         <v>45685</v>
       </c>
-      <c r="BH5" s="74">
+      <c r="BH5" s="73">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45686</v>
       </c>
-      <c r="BI5" s="74">
+      <c r="BI5" s="73">
         <f t="shared" si="2"/>
         <v>45687</v>
       </c>
-      <c r="BJ5" s="74">
+      <c r="BJ5" s="73">
         <f t="shared" si="2"/>
         <v>45688</v>
       </c>
-      <c r="BK5" s="74">
+      <c r="BK5" s="73">
         <f t="shared" si="2"/>
         <v>45689</v>
       </c>
-      <c r="BL5" s="75">
+      <c r="BL5" s="74">
         <f t="shared" si="2"/>
         <v>45690</v>
       </c>
-      <c r="BM5" s="73">
+      <c r="BM5" s="72">
         <f>BL5+1</f>
         <v>45691</v>
       </c>
-      <c r="BN5" s="74">
+      <c r="BN5" s="73">
         <f>BM5+1</f>
         <v>45692</v>
       </c>
-      <c r="BO5" s="74">
+      <c r="BO5" s="73">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
         <v>45693</v>
       </c>
-      <c r="BP5" s="74">
+      <c r="BP5" s="73">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
         <v>45694</v>
       </c>
-      <c r="BQ5" s="74">
+      <c r="BQ5" s="73">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
         <v>45695</v>
       </c>
-      <c r="BR5" s="74">
+      <c r="BR5" s="73">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
         <v>45696</v>
       </c>
-      <c r="BS5" s="75">
+      <c r="BS5" s="74">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
         <v>45697</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" ref="I6:AN6" si="8">LEFT(TEXT(I5,"TTTT"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="10" t="str">
+      <c r="Q6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="S6" s="10" t="str">
+      <c r="S6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="U6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="W6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="X6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="10" t="str">
+      <c r="AB6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AC6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="10" t="str">
+      <c r="AD6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="10" t="str">
+      <c r="AE6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="AF6" s="10" t="str">
+      <c r="AF6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="AG6" s="10" t="str">
+      <c r="AG6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="AH6" s="10" t="str">
+      <c r="AH6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="10" t="str">
+      <c r="AI6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="10" t="str">
+      <c r="AJ6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="10" t="str">
+      <c r="AK6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="10" t="str">
+      <c r="AL6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="AM6" s="10" t="str">
+      <c r="AM6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>M</v>
       </c>
-      <c r="AN6" s="10" t="str">
+      <c r="AN6" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="AO6" s="10" t="str">
+      <c r="AO6" s="9" t="str">
         <f t="shared" ref="AO6:BL6" si="9">LEFT(TEXT(AO5,"TTTT"),1)</f>
         <v>F</v>
       </c>
-      <c r="AP6" s="10" t="str">
+      <c r="AP6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="10" t="str">
+      <c r="AQ6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="10" t="str">
+      <c r="AR6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="10" t="str">
+      <c r="AS6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="AT6" s="10" t="str">
+      <c r="AT6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="AU6" s="10" t="str">
+      <c r="AU6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="AV6" s="10" t="str">
+      <c r="AV6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="10" t="str">
+      <c r="AW6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="10" t="str">
+      <c r="AX6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="10" t="str">
+      <c r="AY6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="10" t="str">
+      <c r="AZ6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="BA6" s="10" t="str">
+      <c r="BA6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="BB6" s="10" t="str">
+      <c r="BB6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="BC6" s="10" t="str">
+      <c r="BC6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="10" t="str">
+      <c r="BD6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="10" t="str">
+      <c r="BE6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="10" t="str">
+      <c r="BF6" s="9" t="str">
         <f>LEFT(TEXT(BF5,"TTTT"),1)</f>
         <v>M</v>
       </c>
-      <c r="BG6" s="10" t="str">
+      <c r="BG6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="BH6" s="10" t="str">
+      <c r="BH6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="BI6" s="10" t="str">
+      <c r="BI6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="BJ6" s="10" t="str">
+      <c r="BJ6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="10" t="str">
+      <c r="BK6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="10" t="str">
+      <c r="BL6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="BM6" s="10" t="str">
+      <c r="BM6" s="9" t="str">
         <f t="shared" ref="BM6" si="10">LEFT(TEXT(BM5,"TTTT"),1)</f>
         <v>M</v>
       </c>
-      <c r="BN6" s="10" t="str">
+      <c r="BN6" s="9" t="str">
         <f t="shared" ref="BN6" si="11">LEFT(TEXT(BN5,"TTTT"),1)</f>
         <v>D</v>
       </c>
-      <c r="BO6" s="10" t="str">
+      <c r="BO6" s="9" t="str">
         <f t="shared" ref="BO6" si="12">LEFT(TEXT(BO5,"TTTT"),1)</f>
         <v>M</v>
       </c>
-      <c r="BP6" s="10" t="str">
+      <c r="BP6" s="9" t="str">
         <f t="shared" ref="BP6" si="13">LEFT(TEXT(BP5,"TTTT"),1)</f>
         <v>D</v>
       </c>
-      <c r="BQ6" s="10" t="str">
+      <c r="BQ6" s="9" t="str">
         <f t="shared" ref="BQ6" si="14">LEFT(TEXT(BQ5,"TTTT"),1)</f>
         <v>F</v>
       </c>
-      <c r="BR6" s="10" t="str">
+      <c r="BR6" s="9" t="str">
         <f t="shared" ref="BR6" si="15">LEFT(TEXT(BR5,"TTTT"),1)</f>
         <v>S</v>
       </c>
-      <c r="BS6" s="10" t="str">
+      <c r="BS6" s="9" t="str">
         <f t="shared" ref="BS6" si="16">LEFT(TEXT(BS5,"TTTT"),1)</f>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="41"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="str">
         <f t="shared" ref="H8:H34" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
-      <c r="BD8" s="26"/>
-      <c r="BE8" s="26"/>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="26"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
-      <c r="BP8" s="26"/>
-      <c r="BQ8" s="26"/>
-      <c r="BR8" s="26"/>
-      <c r="BS8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="25"/>
+      <c r="BE8" s="25"/>
+      <c r="BF8" s="25"/>
+      <c r="BG8" s="25"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="25"/>
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="25"/>
+      <c r="BN8" s="25"/>
+      <c r="BO8" s="25"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25"/>
+      <c r="BR8" s="25"/>
+      <c r="BS8" s="25"/>
     </row>
     <row r="9" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>0</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="62">
         <v>45646</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26"/>
-      <c r="BS9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25"/>
+      <c r="BS9" s="25"/>
     </row>
     <row r="10" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <v>45646</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="26"/>
-      <c r="BD10" s="26"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="26"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="26"/>
-      <c r="BL10" s="26"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26"/>
-      <c r="BO10" s="26"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="26"/>
-      <c r="BR10" s="26"/>
-      <c r="BS10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
     </row>
     <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="62">
         <v>45646</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="26"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="26"/>
-      <c r="BR11" s="26"/>
-      <c r="BS11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
     </row>
     <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="62">
         <v>45646</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="26"/>
-      <c r="BN12" s="26"/>
-      <c r="BO12" s="26"/>
-      <c r="BP12" s="26"/>
-      <c r="BQ12" s="26"/>
-      <c r="BR12" s="26"/>
-      <c r="BS12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
     </row>
     <row r="13" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="str">
+      <c r="C13" s="46"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
-      <c r="BL13" s="26"/>
-      <c r="BM13" s="26"/>
-      <c r="BN13" s="26"/>
-      <c r="BO13" s="26"/>
-      <c r="BP13" s="26"/>
-      <c r="BQ13" s="26"/>
-      <c r="BR13" s="26"/>
-      <c r="BS13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BS13" s="25"/>
     </row>
     <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="65">
         <v>45639</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="65">
         <v>45667</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
-      <c r="BL14" s="26"/>
-      <c r="BM14" s="26"/>
-      <c r="BN14" s="26"/>
-      <c r="BO14" s="26"/>
-      <c r="BP14" s="26"/>
-      <c r="BQ14" s="26"/>
-      <c r="BR14" s="26"/>
-      <c r="BS14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
     </row>
     <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <v>45639</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <v>45667</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="26"/>
-      <c r="BR15" s="26"/>
-      <c r="BS15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
     </row>
     <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="65">
         <v>45639</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <v>45667</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
-      <c r="BL16" s="26"/>
-      <c r="BM16" s="26"/>
-      <c r="BN16" s="26"/>
-      <c r="BO16" s="26"/>
-      <c r="BP16" s="26"/>
-      <c r="BQ16" s="26"/>
-      <c r="BR16" s="26"/>
-      <c r="BS16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
     </row>
     <row r="17" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="65">
         <v>45639</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="65">
         <v>45667</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
-      <c r="BL17" s="26"/>
-      <c r="BM17" s="26"/>
-      <c r="BN17" s="26"/>
-      <c r="BO17" s="26"/>
-      <c r="BP17" s="26"/>
-      <c r="BQ17" s="26"/>
-      <c r="BR17" s="26"/>
-      <c r="BS17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
     </row>
-    <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="54" t="s">
+    <row r="18" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E19" s="65">
         <v>45639</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F19" s="65">
         <v>45667</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
-      <c r="BL18" s="26"/>
-      <c r="BM18" s="26"/>
-      <c r="BN18" s="26"/>
-      <c r="BO18" s="26"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="26"/>
-      <c r="BR18" s="26"/>
-      <c r="BS18" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="25"/>
+      <c r="BP19" s="25"/>
+      <c r="BQ19" s="25"/>
+      <c r="BR19" s="25"/>
+      <c r="BS19" s="25"/>
     </row>
-    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="20" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="str">
+      <c r="C20" s="48"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
-      <c r="BL19" s="26"/>
-      <c r="BM19" s="26"/>
-      <c r="BN19" s="26"/>
-      <c r="BO19" s="26"/>
-      <c r="BP19" s="26"/>
-      <c r="BQ19" s="26"/>
-      <c r="BR19" s="26"/>
-      <c r="BS19" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="25"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="25"/>
+      <c r="BQ20" s="25"/>
+      <c r="BR20" s="25"/>
+      <c r="BS20" s="25"/>
     </row>
-    <row r="20" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="55" t="s">
+    <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E21" s="68">
         <v>45646</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F21" s="68">
         <v>45681</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
-      <c r="BP20" s="26"/>
-      <c r="BQ20" s="26"/>
-      <c r="BR20" s="26"/>
-      <c r="BS20" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="25"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="25"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="25"/>
+      <c r="BS21" s="25"/>
     </row>
-    <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="55" t="s">
+    <row r="22" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D22" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E22" s="68">
         <v>45646</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F22" s="68">
         <v>45681</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="26"/>
-      <c r="BR21" s="26"/>
-      <c r="BS21" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="25"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
     </row>
-    <row r="22" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="55" t="s">
+    <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D23" s="21">
         <v>0</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E23" s="68">
         <v>45646</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F23" s="68">
         <v>45681</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="26"/>
-      <c r="BR22" s="26"/>
-      <c r="BS22" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
     </row>
-    <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="55" t="s">
+    <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="21">
         <v>0</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E24" s="68">
         <v>45646</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F24" s="68">
         <v>45681</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="26"/>
-      <c r="BQ23" s="26"/>
-      <c r="BR23" s="26"/>
-      <c r="BS23" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
+      <c r="BR24" s="25"/>
+      <c r="BS24" s="25"/>
     </row>
-    <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="55" t="s">
+    <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D25" s="21">
         <v>0</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E25" s="68">
         <v>45646</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F25" s="68">
         <v>45681</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="26"/>
-      <c r="BR24" s="26"/>
-      <c r="BS24" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+      <c r="BR25" s="25"/>
+      <c r="BS25" s="25"/>
     </row>
-    <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="26" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="str">
+      <c r="C26" s="50"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="26"/>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="26"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
-      <c r="BL25" s="26"/>
-      <c r="BM25" s="26"/>
-      <c r="BN25" s="26"/>
-      <c r="BO25" s="26"/>
-      <c r="BP25" s="26"/>
-      <c r="BQ25" s="26"/>
-      <c r="BR25" s="26"/>
-      <c r="BS25" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="25"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="25"/>
+      <c r="BO26" s="25"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+      <c r="BR26" s="25"/>
+      <c r="BS26" s="25"/>
     </row>
-    <row r="26" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="56" t="s">
+    <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D27" s="24">
         <v>0</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E27" s="71">
         <v>45681</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F27" s="71">
         <v>45693</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
-      <c r="BP26" s="26"/>
-      <c r="BQ26" s="26"/>
-      <c r="BR26" s="26"/>
-      <c r="BS26" s="26"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="25"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="25"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="25"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="25"/>
+      <c r="BO27" s="25"/>
+      <c r="BP27" s="25"/>
+      <c r="BQ27" s="25"/>
+      <c r="BR27" s="25"/>
+      <c r="BS27" s="25"/>
     </row>
-    <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="56" t="s">
+    <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C28" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D28" s="24">
         <v>0</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E28" s="71">
         <v>45681</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F28" s="71">
         <v>45693</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
-      <c r="BP27" s="26"/>
-      <c r="BQ27" s="26"/>
-      <c r="BR27" s="26"/>
-      <c r="BS27" s="26"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="25"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="25"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="25"/>
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="25"/>
+      <c r="BS28" s="25"/>
     </row>
-    <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="56" t="s">
+    <row r="29" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D29" s="24">
         <v>0</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E29" s="71">
         <v>45681</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F29" s="71">
         <v>45693</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="26"/>
-      <c r="BQ28" s="26"/>
-      <c r="BR28" s="26"/>
-      <c r="BS28" s="26"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="25"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="25"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="25"/>
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="25"/>
+      <c r="BS29" s="25"/>
     </row>
-    <row r="29" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+    <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13" t="str">
+      <c r="C30" s="44"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="26"/>
-      <c r="BQ29" s="26"/>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="26"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="25"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="25"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="25"/>
+      <c r="BO30" s="25"/>
+      <c r="BP30" s="25"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="25"/>
+      <c r="BS30" s="25"/>
     </row>
-    <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+    <row r="31" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="15">
         <v>0</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E31" s="62">
         <v>45681</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F31" s="62">
         <v>45688</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="26"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="26"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="26"/>
-      <c r="BM30" s="26"/>
-      <c r="BN30" s="26"/>
-      <c r="BO30" s="26"/>
-      <c r="BP30" s="26"/>
-      <c r="BQ30" s="26"/>
-      <c r="BR30" s="26"/>
-      <c r="BS30" s="26"/>
-    </row>
-    <row r="31" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="63">
-        <v>45681</v>
-      </c>
-      <c r="F31" s="63">
-        <v>45688</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
-      <c r="BQ31" s="26"/>
-      <c r="BR31" s="26"/>
-      <c r="BS31" s="26"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="25"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="25"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="25"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="25"/>
+      <c r="BO31" s="25"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="25"/>
+      <c r="BS31" s="25"/>
     </row>
     <row r="32" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="46" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>0</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="62">
         <v>45681</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="62">
         <v>45688</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
-      <c r="BM32" s="26"/>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="26"/>
-      <c r="BP32" s="26"/>
-      <c r="BQ32" s="26"/>
-      <c r="BR32" s="26"/>
-      <c r="BS32" s="26"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
+      <c r="BF32" s="25"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
+      <c r="BM32" s="25"/>
+      <c r="BN32" s="25"/>
+      <c r="BO32" s="25"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="25"/>
+      <c r="BS32" s="25"/>
     </row>
     <row r="33" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="62">
+        <v>45681</v>
+      </c>
+      <c r="F33" s="62">
+        <v>45688</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="25"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="25"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="25"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="25"/>
+      <c r="BL33" s="25"/>
+      <c r="BM33" s="25"/>
+      <c r="BN33" s="25"/>
+      <c r="BO33" s="25"/>
+      <c r="BP33" s="25"/>
+      <c r="BQ33" s="25"/>
+      <c r="BR33" s="25"/>
+      <c r="BS33" s="25"/>
+    </row>
+    <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13" t="str">
+      <c r="C34" s="46"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
-      <c r="BM33" s="26"/>
-      <c r="BN33" s="26"/>
-      <c r="BO33" s="26"/>
-      <c r="BP33" s="26"/>
-      <c r="BQ33" s="26"/>
-      <c r="BR33" s="26"/>
-      <c r="BS33" s="26"/>
-    </row>
-    <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="63">
-        <v>45688</v>
-      </c>
-      <c r="F34" s="72">
-        <v>45693</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26"/>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-      <c r="BR34" s="26"/>
-      <c r="BS34" s="26"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="25"/>
+      <c r="BE34" s="25"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
+      <c r="BM34" s="25"/>
+      <c r="BN34" s="25"/>
+      <c r="BO34" s="25"/>
+      <c r="BP34" s="25"/>
+      <c r="BQ34" s="25"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="25"/>
     </row>
     <row r="35" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>0</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="65">
         <v>45688</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="65">
         <v>45693</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
       <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="26"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="26"/>
-      <c r="BM35" s="26"/>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
-      <c r="BP35" s="26"/>
-      <c r="BQ35" s="26"/>
-      <c r="BR35" s="26"/>
-      <c r="BS35" s="26"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="25"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="25"/>
+      <c r="AW35" s="25"/>
+      <c r="AX35" s="25"/>
+      <c r="AY35" s="25"/>
+      <c r="AZ35" s="25"/>
+      <c r="BA35" s="25"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="25"/>
+      <c r="BD35" s="25"/>
+      <c r="BE35" s="25"/>
+      <c r="BF35" s="25"/>
+      <c r="BG35" s="25"/>
+      <c r="BH35" s="25"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="25"/>
+      <c r="BK35" s="25"/>
+      <c r="BL35" s="25"/>
+      <c r="BM35" s="25"/>
+      <c r="BN35" s="25"/>
+      <c r="BO35" s="25"/>
+      <c r="BP35" s="25"/>
+      <c r="BQ35" s="25"/>
+      <c r="BR35" s="25"/>
+      <c r="BS35" s="25"/>
     </row>
     <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="82">
+        <v>0</v>
+      </c>
+      <c r="E36" s="65">
+        <v>45688</v>
+      </c>
+      <c r="F36" s="65">
+        <v>45693</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+      <c r="BE36" s="25"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="25"/>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="25"/>
+      <c r="BK36" s="25"/>
+      <c r="BL36" s="25"/>
+      <c r="BM36" s="25"/>
+      <c r="BN36" s="25"/>
+      <c r="BO36" s="25"/>
+      <c r="BP36" s="25"/>
+      <c r="BQ36" s="25"/>
+      <c r="BR36" s="25"/>
+      <c r="BS36" s="25"/>
+    </row>
+    <row r="37" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D37" s="82">
         <v>0</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E37" s="65">
         <v>45688</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F37" s="65">
         <v>45693</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-      <c r="BR36" s="26"/>
-      <c r="BS36" s="26"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="25"/>
+      <c r="AZ37" s="25"/>
+      <c r="BA37" s="25"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="25"/>
+      <c r="BE37" s="25"/>
+      <c r="BF37" s="25"/>
+      <c r="BG37" s="25"/>
+      <c r="BH37" s="25"/>
+      <c r="BI37" s="25"/>
+      <c r="BJ37" s="25"/>
+      <c r="BK37" s="25"/>
+      <c r="BL37" s="25"/>
+      <c r="BM37" s="25"/>
+      <c r="BN37" s="25"/>
+      <c r="BO37" s="25"/>
+      <c r="BP37" s="25"/>
+      <c r="BQ37" s="25"/>
+      <c r="BR37" s="25"/>
+      <c r="BS37" s="25"/>
     </row>
-    <row r="37" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
+    <row r="38" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+      <c r="F38" s="40"/>
     </row>
-    <row r="38" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="F38" s="41"/>
-    </row>
-    <row r="39" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
+    <row r="39" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="11"/>
+      <c r="AG39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6324,8 +5804,8 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
-    <cfRule type="dataBar" priority="127">
+  <conditionalFormatting sqref="D7:D17 D19:D37">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6338,479 +5818,297 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BK36">
-    <cfRule type="expression" dxfId="117" priority="146">
+  <conditionalFormatting sqref="I5:BK17 I19:BK35 BL35:BO35 I36:BO37">
+    <cfRule type="expression" dxfId="66" priority="161">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BK36">
-    <cfRule type="expression" dxfId="116" priority="140">
+  <conditionalFormatting sqref="I7:BK17 I19:BK35 BL35:BO35 I36:BO37">
+    <cfRule type="expression" dxfId="65" priority="155">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL5:BL25 BL29:BL33">
-    <cfRule type="expression" dxfId="114" priority="148">
+  <conditionalFormatting sqref="BL30:BL34 BL5:BL17 BL19:BP26 BM8:BS17 BP35 BQ19:BS35 BP36:BS37">
+    <cfRule type="expression" dxfId="63" priority="163">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL7:BL25 BL29:BL33">
-    <cfRule type="expression" dxfId="113" priority="151">
+  <conditionalFormatting sqref="BL30:BL34 BL7:BL17 BL19:BP26 BM8:BS17 BP35 BQ19:BS35 BP36:BS37">
+    <cfRule type="expression" dxfId="62" priority="166">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="167" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN5:BR6">
-    <cfRule type="expression" dxfId="111" priority="108">
+    <cfRule type="expression" dxfId="60" priority="123">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS6">
-    <cfRule type="expression" dxfId="110" priority="109">
+    <cfRule type="expression" dxfId="59" priority="124">
       <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6">
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="58" priority="122">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM5">
-    <cfRule type="expression" dxfId="108" priority="106">
+    <cfRule type="expression" dxfId="57" priority="121">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN8:BN25 BN29:BN33">
-    <cfRule type="expression" dxfId="104" priority="103">
+  <conditionalFormatting sqref="BN30:BN34">
+    <cfRule type="expression" dxfId="56" priority="118">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN8:BN25 BN29:BN33">
-    <cfRule type="expression" dxfId="103" priority="104">
+  <conditionalFormatting sqref="BN30:BN34">
+    <cfRule type="expression" dxfId="55" priority="119">
       <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="120" stopIfTrue="1">
       <formula>AND(task_end&gt;=BN$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BM25 BM29:BM32">
-    <cfRule type="expression" dxfId="101" priority="100">
+  <conditionalFormatting sqref="BM30:BM33">
+    <cfRule type="expression" dxfId="53" priority="115">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BM25 BM29:BM32">
-    <cfRule type="expression" dxfId="100" priority="101">
+  <conditionalFormatting sqref="BM30:BM33">
+    <cfRule type="expression" dxfId="52" priority="116">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="117" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO8:BO25 BO29:BO33">
-    <cfRule type="expression" dxfId="98" priority="97">
+  <conditionalFormatting sqref="BO30:BO34">
+    <cfRule type="expression" dxfId="50" priority="112">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO8:BO25 BO29:BO33">
-    <cfRule type="expression" dxfId="97" priority="98">
+  <conditionalFormatting sqref="BO30:BO34">
+    <cfRule type="expression" dxfId="49" priority="113">
       <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP8:BP25 BP27 BP29:BP36">
-    <cfRule type="expression" dxfId="95" priority="94">
+  <conditionalFormatting sqref="BP28 BP30:BP34">
+    <cfRule type="expression" dxfId="47" priority="109">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP8:BP25 BP27 BP29:BP36">
-    <cfRule type="expression" dxfId="94" priority="95">
+  <conditionalFormatting sqref="BP28 BP30:BP34">
+    <cfRule type="expression" dxfId="46" priority="110">
       <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ8:BQ36">
-    <cfRule type="expression" dxfId="92" priority="91">
-      <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ8:BQ36">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="93" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BQ$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR8:BR36">
-    <cfRule type="expression" dxfId="89" priority="88">
-      <formula>AND(TODAY()&gt;=BR$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR8:BR36">
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BR$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS8:BS36">
-    <cfRule type="expression" dxfId="86" priority="85">
-      <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS8:BS36">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>AND(task_start&lt;=BS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BS$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BS$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL26">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL26">
-    <cfRule type="expression" dxfId="82" priority="82">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="83" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM26">
-    <cfRule type="expression" dxfId="80" priority="81">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM26">
-    <cfRule type="expression" dxfId="79" priority="79">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN26">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN26">
-    <cfRule type="expression" dxfId="76" priority="76">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO26:BP26">
-    <cfRule type="expression" dxfId="74" priority="75">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO26:BP26">
-    <cfRule type="expression" dxfId="73" priority="73">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO27">
-    <cfRule type="expression" dxfId="68" priority="69">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO27">
-    <cfRule type="expression" dxfId="67" priority="67">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL27">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="44" priority="99">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL27">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="43" priority="97">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM27">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="41" priority="96">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM27">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="40" priority="94">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN27">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="38" priority="93">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN27">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="37" priority="91">
       <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO27:BP27">
+    <cfRule type="expression" dxfId="35" priority="90">
+      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO27:BP27">
+    <cfRule type="expression" dxfId="34" priority="88">
+      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="89" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO28">
+    <cfRule type="expression" dxfId="32" priority="84">
+      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO28">
+    <cfRule type="expression" dxfId="31" priority="82">
+      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="83" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="29" priority="78">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="28" priority="76">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM28">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="26" priority="75">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM28">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="25" priority="73">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN28">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="23" priority="72">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN28">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="22" priority="70">
       <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
-    <cfRule type="expression" dxfId="44" priority="45">
+  <conditionalFormatting sqref="BL29">
+    <cfRule type="expression" dxfId="20" priority="69">
+      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL29">
+    <cfRule type="expression" dxfId="19" priority="67">
+      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="68" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM29">
+    <cfRule type="expression" dxfId="17" priority="66">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM29">
+    <cfRule type="expression" dxfId="16" priority="64">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="65" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN29">
+    <cfRule type="expression" dxfId="14" priority="63">
+      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN29">
+    <cfRule type="expression" dxfId="13" priority="61">
+      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="62" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP29">
+    <cfRule type="expression" dxfId="11" priority="60">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
-    <cfRule type="expression" dxfId="43" priority="43">
+  <conditionalFormatting sqref="BP29">
+    <cfRule type="expression" dxfId="10" priority="58">
       <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
-    <cfRule type="expression" dxfId="41" priority="42">
+  <conditionalFormatting sqref="BO29">
+    <cfRule type="expression" dxfId="8" priority="57">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
-    <cfRule type="expression" dxfId="40" priority="40">
+  <conditionalFormatting sqref="BO29">
+    <cfRule type="expression" dxfId="7" priority="55">
       <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL34">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL34">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM34">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM34">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO34">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
+  <conditionalFormatting sqref="AG39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO34">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN34">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN34">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO35">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO35">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN35">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN35">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM35">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM35">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL35">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL35">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM36">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM36">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL36">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL36">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO36">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO36">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN36">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN36">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM33">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM33">
+  <conditionalFormatting sqref="AG39">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6840,7 +6138,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D17 D19:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6858,85 +6156,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="28" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:2" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:2" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="29" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:2" s="28" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" s="28" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="29" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:2" s="28" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Projektvorbereitung/Zeitplan.xlsx
+++ b/Projektvorbereitung/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685EA346-3FB1-4ACB-9CBA-5E5AAF1B337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB2917-A32E-4237-8B1A-969FECB5F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,6 +1281,12 @@
     <xf numFmtId="169" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1297,12 +1303,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,7 +1362,19 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="37">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1375,11 +1387,92 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1407,25 +1500,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -1433,493 +1507,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1946,6 +1533,17 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1955,6 +1553,40 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2000,16 +1632,18 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2021,13 +1655,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2137,15 +1764,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="75"/>
-      <tableStyleElement type="headerRow" dxfId="74"/>
-      <tableStyleElement type="totalRow" dxfId="73"/>
-      <tableStyleElement type="firstColumn" dxfId="72"/>
-      <tableStyleElement type="lastColumn" dxfId="71"/>
-      <tableStyleElement type="firstRowStripe" dxfId="70"/>
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="68"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="lastColumn" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2560,11 +2187,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS39"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2607,119 +2234,119 @@
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="80">
+      <c r="D3" s="78"/>
+      <c r="E3" s="82">
         <v>45639</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="79">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="77">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="77">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="77">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="77">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77">
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="77">
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="77">
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="79"/>
-      <c r="BM4" s="77">
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="79">
         <f>BM5</f>
         <v>45691</v>
       </c>
-      <c r="BN4" s="78"/>
-      <c r="BO4" s="78"/>
-      <c r="BP4" s="78"/>
-      <c r="BQ4" s="78"/>
-      <c r="BR4" s="78"/>
-      <c r="BS4" s="79"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="81"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
@@ -3336,11 +2963,11 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
-        <f t="shared" ref="H8:H34" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="25"/>
@@ -4183,28 +3810,107 @@
       <c r="BR17" s="25"/>
       <c r="BS17" s="25"/>
     </row>
-    <row r="18" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="53" t="s">
+    <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E18" s="65">
         <v>45639</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F18" s="65">
         <v>45667</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
         <f t="shared" si="17"/>
         <v>29</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
+      <c r="BF18" s="25"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="25"/>
+      <c r="BS18" s="25"/>
+    </row>
+    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -4271,20 +3977,26 @@
       <c r="BS19" s="25"/>
     </row>
     <row r="20" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="68">
+        <v>45646</v>
+      </c>
+      <c r="F20" s="68">
+        <v>45681</v>
+      </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="12" t="str">
+      <c r="H20" s="12">
         <f t="shared" si="17"/>
-        <v/>
+        <v>36</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -4353,7 +4065,7 @@
     <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>19</v>
@@ -4439,7 +4151,7 @@
     <row r="22" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>19</v>
@@ -4525,7 +4237,7 @@
     <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>19</v>
@@ -4611,7 +4323,7 @@
     <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>19</v>
@@ -4695,26 +4407,20 @@
       <c r="BS24" s="25"/>
     </row>
     <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="68">
-        <v>45646</v>
-      </c>
-      <c r="F25" s="68">
-        <v>45681</v>
-      </c>
+      <c r="A25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12">
+      <c r="H25" s="12" t="str">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v/>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -4781,20 +4487,26 @@
       <c r="BS25" s="25"/>
     </row>
     <row r="26" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="71">
+        <v>45681</v>
+      </c>
+      <c r="F26" s="71">
+        <v>45693</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12" t="str">
+      <c r="H26" s="12">
         <f t="shared" si="17"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -4863,7 +4575,7 @@
     <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>19</v>
@@ -4949,7 +4661,7 @@
     <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="51" t="s">
         <v>19</v>
@@ -5033,26 +4745,20 @@
       <c r="BS28" s="25"/>
     </row>
     <row r="29" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="71">
-        <v>45681</v>
-      </c>
-      <c r="F29" s="71">
-        <v>45693</v>
-      </c>
+      <c r="A29" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12">
+      <c r="H29" s="12" t="str">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -5120,19 +4826,27 @@
     </row>
     <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="62">
+        <v>45681</v>
+      </c>
+      <c r="F30" s="62">
+        <v>45688</v>
+      </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="12" t="str">
+      <c r="H30" s="12">
         <f t="shared" si="17"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -5199,11 +4913,9 @@
       <c r="BS30" s="25"/>
     </row>
     <row r="31" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="39"/>
       <c r="B31" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>19</v>
@@ -5218,10 +4930,7 @@
         <v>45688</v>
       </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="12">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -5289,7 +4998,7 @@
     <row r="32" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>19</v>
@@ -5370,24 +5079,21 @@
       <c r="BS32" s="25"/>
     </row>
     <row r="33" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="62">
-        <v>45681</v>
-      </c>
-      <c r="F33" s="62">
-        <v>45688</v>
-      </c>
+      <c r="A33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -5453,21 +5159,24 @@
       <c r="BS33" s="25"/>
     </row>
     <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="65">
+        <v>45688</v>
+      </c>
+      <c r="F34" s="65">
+        <v>45693</v>
+      </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="H34" s="12"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -5484,7 +5193,7 @@
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
+      <c r="Y34" s="26"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
@@ -5535,12 +5244,12 @@
     <row r="35" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="76">
         <v>0</v>
       </c>
       <c r="E35" s="65">
@@ -5618,12 +5327,12 @@
     <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="76">
         <v>0</v>
       </c>
       <c r="E36" s="65">
@@ -5698,96 +5407,13 @@
       <c r="BR36" s="25"/>
       <c r="BS36" s="25"/>
     </row>
-    <row r="37" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="82">
-        <v>0</v>
-      </c>
-      <c r="E37" s="65">
-        <v>45688</v>
-      </c>
-      <c r="F37" s="65">
-        <v>45693</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="25"/>
-      <c r="AZ37" s="25"/>
-      <c r="BA37" s="25"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
-      <c r="BD37" s="25"/>
-      <c r="BE37" s="25"/>
-      <c r="BF37" s="25"/>
-      <c r="BG37" s="25"/>
-      <c r="BH37" s="25"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="25"/>
-      <c r="BK37" s="25"/>
-      <c r="BL37" s="25"/>
-      <c r="BM37" s="25"/>
-      <c r="BN37" s="25"/>
-      <c r="BO37" s="25"/>
-      <c r="BP37" s="25"/>
-      <c r="BQ37" s="25"/>
-      <c r="BR37" s="25"/>
-      <c r="BS37" s="25"/>
+    <row r="37" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="10"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="10"/>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
-      <c r="AG39" s="25"/>
+      <c r="C38" s="11"/>
+      <c r="AG38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5804,8 +5430,8 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D17 D19:D37">
-    <cfRule type="dataBar" priority="142">
+  <conditionalFormatting sqref="D7:D36">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5818,300 +5444,141 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BK17 I19:BK35 BL35:BO35 I36:BO37">
-    <cfRule type="expression" dxfId="66" priority="161">
+  <conditionalFormatting sqref="I5:BK34 BL34:BO34 I35:BO36">
+    <cfRule type="expression" dxfId="27" priority="162">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BK17 I19:BK35 BL35:BO35 I36:BO37">
-    <cfRule type="expression" dxfId="65" priority="155">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="156" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:BK34 BL34:BO34 I35:BO36">
+    <cfRule type="expression" dxfId="26" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL30:BL34 BL5:BL17 BL19:BP26 BM8:BS17 BP35 BQ19:BS35 BP36:BS37">
-    <cfRule type="expression" dxfId="63" priority="163">
+  <conditionalFormatting sqref="I7:BL17">
+    <cfRule type="expression" dxfId="25" priority="156">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:BS36">
+    <cfRule type="expression" dxfId="24" priority="17">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL18:BP25 BQ18:BS34 BL29:BL33 BP35:BS36">
+    <cfRule type="expression" dxfId="20" priority="164">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL30:BL34 BL7:BL17 BL19:BP26 BM8:BS17 BP35 BQ19:BS35 BP36:BS37">
-    <cfRule type="expression" dxfId="62" priority="166">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
+  <conditionalFormatting sqref="BL27:BO27">
+    <cfRule type="expression" dxfId="19" priority="72" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="73">
+      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL26:BP26">
+    <cfRule type="expression" dxfId="17" priority="90" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="91">
+      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL28:BP28">
+    <cfRule type="expression" dxfId="15" priority="57" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="58">
+      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM29:BM32">
+    <cfRule type="expression" dxfId="13" priority="116">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="118" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM33">
+    <cfRule type="expression" dxfId="11" priority="18" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="19">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM5:BR6">
+    <cfRule type="expression" dxfId="9" priority="122">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL18:BP25 BQ18:BS34 BL29:BL33 BP35:BS36">
+    <cfRule type="expression" dxfId="8" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN5:BR6">
-    <cfRule type="expression" dxfId="60" priority="123">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
+  <conditionalFormatting sqref="BM8:BS17">
+    <cfRule type="expression" dxfId="7" priority="167">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN29:BN33">
+    <cfRule type="expression" dxfId="6" priority="119">
+      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="121" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BN$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO29:BO33">
+    <cfRule type="expression" dxfId="4" priority="113">
+      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="115" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BO$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP27 BP29:BP34">
+    <cfRule type="expression" dxfId="2" priority="110">
+      <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS6">
-    <cfRule type="expression" dxfId="59" priority="124">
+    <cfRule type="expression" dxfId="0" priority="125">
       <formula>AND(TODAY()&gt;=BS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM6">
-    <cfRule type="expression" dxfId="58" priority="122">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+  <conditionalFormatting sqref="E8:F8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{418DE02F-35E7-43F7-88D5-C922ED328543}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5">
-    <cfRule type="expression" dxfId="57" priority="121">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN30:BN34">
-    <cfRule type="expression" dxfId="56" priority="118">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN30:BN34">
-    <cfRule type="expression" dxfId="55" priority="119">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="120" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM30:BM33">
-    <cfRule type="expression" dxfId="53" priority="115">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM30:BM33">
-    <cfRule type="expression" dxfId="52" priority="116">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="117" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO30:BO34">
-    <cfRule type="expression" dxfId="50" priority="112">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO30:BO34">
-    <cfRule type="expression" dxfId="49" priority="113">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP28 BP30:BP34">
-    <cfRule type="expression" dxfId="47" priority="109">
-      <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP28 BP30:BP34">
-    <cfRule type="expression" dxfId="46" priority="110">
-      <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="111" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BP$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL27">
-    <cfRule type="expression" dxfId="44" priority="99">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL27">
-    <cfRule type="expression" dxfId="43" priority="97">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="98" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM27">
-    <cfRule type="expression" dxfId="41" priority="96">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM27">
-    <cfRule type="expression" dxfId="40" priority="94">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="95" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN27">
-    <cfRule type="expression" dxfId="38" priority="93">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN27">
-    <cfRule type="expression" dxfId="37" priority="91">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="92" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO27:BP27">
-    <cfRule type="expression" dxfId="35" priority="90">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO27:BP27">
-    <cfRule type="expression" dxfId="34" priority="88">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="89" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
-    <cfRule type="expression" dxfId="32" priority="84">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
-    <cfRule type="expression" dxfId="31" priority="82">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="83" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL28">
-    <cfRule type="expression" dxfId="29" priority="78">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL28">
-    <cfRule type="expression" dxfId="28" priority="76">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM28">
-    <cfRule type="expression" dxfId="26" priority="75">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM28">
-    <cfRule type="expression" dxfId="25" priority="73">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN28">
-    <cfRule type="expression" dxfId="23" priority="72">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN28">
-    <cfRule type="expression" dxfId="22" priority="70">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="71" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL29">
-    <cfRule type="expression" dxfId="20" priority="69">
-      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL29">
-    <cfRule type="expression" dxfId="19" priority="67">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM29">
-    <cfRule type="expression" dxfId="17" priority="66">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM29">
-    <cfRule type="expression" dxfId="16" priority="64">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="65" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN29">
-    <cfRule type="expression" dxfId="14" priority="63">
-      <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN29">
-    <cfRule type="expression" dxfId="13" priority="61">
-      <formula>AND(task_start&lt;=BN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="62" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BN$5,task_start&lt;BO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
-    <cfRule type="expression" dxfId="11" priority="60">
-      <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;BQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="59" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BP$5,task_start&lt;BQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO29">
-    <cfRule type="expression" dxfId="8" priority="57">
-      <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO29">
-    <cfRule type="expression" dxfId="7" priority="55">
-      <formula>AND(task_start&lt;=BO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="56" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BO$5,task_start&lt;BP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM34">
-    <cfRule type="expression" dxfId="5" priority="18">
-      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM34">
-    <cfRule type="expression" dxfId="4" priority="16">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG39">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG39">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -6138,7 +5605,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D17 D19:D37</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{418DE02F-35E7-43F7-88D5-C922ED328543}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E8:F8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Projektvorbereitung/Zeitplan.xlsx
+++ b/Projektvorbereitung/Zeitplan.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554949E3-24AC-4576-B243-F1A0E3FD5B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760ABDBE-672D-4559-AFEF-A2D6BF850BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
-    <sheet name="Info" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Anzeigewoche">Projektplan!$E$4</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -49,13 +48,7 @@
 Navigieren Sie weiterhin in Spalte A abwärts, um weitere Anweisungen zu hören.</t>
   </si>
   <si>
-    <t>EINFACHES GANTT-DIAGRAMM von Vertex42.com</t>
-  </si>
-  <si>
     <t>Geben Sie den Firmennamen in Zelle B2 ein.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
@@ -124,9 +117,6 @@
 Von Zelle I9 bis Zelle BL9 wird eine Statusleiste mit einer entsprechenden Schattierung für die eingegebenen Datumsangaben in Blöcken angezeigt. </t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>In den Zeilen 10 bis 13 wird das Muster aus Zeile 9 wiederholt. 
 Wiederholen Sie die Anweisungen aus Zelle A9 für alle Aufgabenzeilen auf diesem Arbeitsblatt. Überschreiben Sie alle Beispieldaten.
 Ein Beispiel für eine andere Phase beginnt in Zelle A14. 
@@ -144,50 +134,6 @@
   </si>
   <si>
     <t>Titelblock für Beispielphase</t>
-  </si>
-  <si>
-    <t>Über diese Vorlage</t>
-  </si>
-  <si>
-    <t>Diese Vorlage bietet eine einfache Möglichkeit, ein Gantt-Diagramm zu erstellen, um Ihr Projekt zu visualisieren und seine Nachverfolgung zu erleichtern. Geben Sie einfach Ihre Aufgaben sowie das Start- und Enddatum ein; es sind keine Formeln erforderlich. Die Balken im Gantt-Diagramm stellen die Dauer der Aufgabe dar und werden mithilfe bedingtes Formatierungen angezeigt. Fügen Sie neue Aufgaben ein, indem Sie neue Zeilen einfügen.</t>
-  </si>
-  <si>
-    <t>Leitfaden für die Sprachausgabe</t>
-  </si>
-  <si>
-    <t>Diese Arbeitsmappe enthält 2 Arbeitsblätter. 
-Arbeitszeittabelle
-Info
-Die Anweisungen für jedes Arbeitsblatt befinden sich in Spalte A ab Zelle A1 der einzelnen Arbeitsblätter. Sie sind in verborgenem Text geschrieben. Jeder Schritt führt Sie durch die Informationen in der betreffenden Zeile. Jeder nachfolgende Schritt fährt in den Zellen A2, A3 usw. fort, sofern nicht ausdrücklich anders angegeben. Beispielsweise kann der Anweisungstext etwa für den nächsten Schritt "Mit Zelle 6 fortfahren" besagen. 
-Dieser verborgene Text wird nicht gedruckt.
-Um diese Anweisungen aus dem Arbeitsblatt zu entfernen, löschen Sie einfach Spalte A.</t>
-  </si>
-  <si>
-    <t>Weitere Hilfe</t>
-  </si>
-  <si>
-    <t>Klicken Sie auf den Link unten, um zu vertex42.com zu gehen und mehr über die Verwendung dieser Vorlage zu erfahren, z. B. wie Tage und Arbeitstage berechnet werden, wie Aufgabenabhängigkeiten erstellt werden, wie die Farben der Balken geändert werden, wie eine Bildlaufleiste hinzugefügt wird, um die Anzeigewoche einfacher zu ändern, wie der in dem Diagramm angezeigte Datumsbereich geändert wird usw.</t>
-  </si>
-  <si>
-    <t>Verwenden des einfachen Gantt-Diagramms</t>
-  </si>
-  <si>
-    <t>Weitere Projektmanagementvorlagen</t>
-  </si>
-  <si>
-    <t>Rufen Sie Vertex42.com auf, um weitere Projektmanagementvorlagen herunterzuladen, einschließlich unterschiedlicher Typen von Projektplänen, Gantt-Diagramme, Aufgabenlisten usw.</t>
-  </si>
-  <si>
-    <t>Projektmanagementvorlagen</t>
-  </si>
-  <si>
-    <t>Informationen zu Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com bietet mehr als 300 professionell entworfene Tabellenkalkulationsvorlagen für die Nutzung im Geschäft, zu Hause und in Bildungseinrichtungen – die meisten können Sie kostenlos herunterladen. Die Sammlung beinhaltet eine Vielzahl von Kalendern, Planern und Zeitplänen sowie Tabellen für die private Finanzkalkulation zur Erstellung von Budgets, Reduzierung von Belastungen und Amortisation von Darlehen.</t>
-  </si>
-  <si>
-    <t>Unternehmen werden bei Rechnungen, Arbeitszeittabellen, Bestandstrackern, Geschäftsberichten und Vorlagen für die Projektplanung fündig. Lehrer und Schüler finden Ressourcen wie Stundenpläne, Klassenbücher und Teilnahmebögen. Organisieren Sie Ihr Familienleben mit Speiseplänen, Checklisten und Übungsprotokollen. Jede Vorlage wurde gründlich recherchiert, verfeinert und im Lauf der Zeit anhand des Feedbacks von Tausenden von Benutzern verbessert.</t>
   </si>
   <si>
     <t>1. Anforderungsanalyse</t>
@@ -247,9 +193,6 @@
     <t>Integration des dynamischen Zugriffkontrollsystems und der MFA-Methoden in den Anmeldeprozess</t>
   </si>
   <si>
-    <t>Sicherstellung, dass alle sicherheitsrelevanten Daten verschlüsselt gespeichert werden.</t>
-  </si>
-  <si>
     <t>Erstellung einer technischen Dokumentation, die alle Aspekte des Systems beschreibt, einschließlich Architektur, API-Spezifikationen und Datenbankdesign</t>
   </si>
   <si>
@@ -280,11 +223,23 @@
     <t>Cyber-Sicherheit</t>
   </si>
   <si>
-    <t>Projektleiter: Marc Grundwald, 
+    <t>Sichere Finanzverwaltung: Verbesserung von JWT gestützter Authentifizierung durch dynamisches Zugriffskontrollsystem und Multi-Faktor-Authentifizierung</t>
+  </si>
+  <si>
+    <t>Projektleiter: Marc Grunwald, 
                           Christopher Unkart</t>
   </si>
   <si>
-    <t>Sichere Finanzverwaltung: JWT gestützte Authentifizierung mit dynamischem Zugriffskontrollsystem und Multi-Faktor-Authentifizierung</t>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Christopher + Marc</t>
+  </si>
+  <si>
+    <t>Marc + Christopher</t>
   </si>
 </sst>
 </file>
@@ -301,7 +256,7 @@
     <numFmt numFmtId="168" formatCode="d/\ mmm\ yyyy"/>
     <numFmt numFmtId="169" formatCode="d"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,49 +355,6 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1009,7 +921,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1031,49 +943,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,39 +1062,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1229,11 +1113,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,7 +1243,7 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="36">
     <dxf>
       <border>
         <left style="thin">
@@ -1641,13 +1522,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -1764,15 +1638,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="totalRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
-      <tableStyleElement type="lastColumn" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1863,62 +1737,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bild 1" descr="Vertex42-Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2187,16 +2005,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS38"/>
+  <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -2208,431 +2026,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>67</v>
+      <c r="B1" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="27"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="57"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="58"/>
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:71" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="82">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71">
         <v>45639</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="78"/>
+      <c r="A4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="67"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="68">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="68">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="68">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="68">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="68">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="68">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="68">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="68">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="79">
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="68">
         <f>BM5</f>
         <v>45691</v>
       </c>
-      <c r="BN4" s="80"/>
-      <c r="BO4" s="80"/>
-      <c r="BP4" s="80"/>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="80"/>
-      <c r="BS4" s="81"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="70"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="I5" s="72">
+      <c r="A5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="I5" s="61">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
         <v>45635</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="62">
         <f>I5+1</f>
         <v>45636</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="62">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45637</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="62">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="62">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="62">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="63">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="61">
         <f>O5+1</f>
         <v>45642</v>
       </c>
-      <c r="Q5" s="73">
+      <c r="Q5" s="62">
         <f>P5+1</f>
         <v>45643</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="62">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="62">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T5" s="62">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="62">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="V5" s="74">
+      <c r="V5" s="63">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="W5" s="72">
+      <c r="W5" s="61">
         <f>V5+1</f>
         <v>45649</v>
       </c>
-      <c r="X5" s="73">
+      <c r="X5" s="62">
         <f>W5+1</f>
         <v>45650</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="62">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
-      <c r="Z5" s="73">
+      <c r="Z5" s="62">
         <f t="shared" si="0"/>
         <v>45652</v>
       </c>
-      <c r="AA5" s="73">
+      <c r="AA5" s="62">
         <f t="shared" si="0"/>
         <v>45653</v>
       </c>
-      <c r="AB5" s="73">
+      <c r="AB5" s="62">
         <f t="shared" si="0"/>
         <v>45654</v>
       </c>
-      <c r="AC5" s="74">
+      <c r="AC5" s="63">
         <f t="shared" si="0"/>
         <v>45655</v>
       </c>
-      <c r="AD5" s="72">
+      <c r="AD5" s="61">
         <f>AC5+1</f>
         <v>45656</v>
       </c>
-      <c r="AE5" s="73">
+      <c r="AE5" s="62">
         <f>AD5+1</f>
         <v>45657</v>
       </c>
-      <c r="AF5" s="73">
+      <c r="AF5" s="62">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
-      <c r="AG5" s="73">
+      <c r="AG5" s="62">
         <f t="shared" si="0"/>
         <v>45659</v>
       </c>
-      <c r="AH5" s="73">
+      <c r="AH5" s="62">
         <f t="shared" si="0"/>
         <v>45660</v>
       </c>
-      <c r="AI5" s="73">
+      <c r="AI5" s="62">
         <f t="shared" si="0"/>
         <v>45661</v>
       </c>
-      <c r="AJ5" s="74">
+      <c r="AJ5" s="63">
         <f t="shared" si="0"/>
         <v>45662</v>
       </c>
-      <c r="AK5" s="72">
+      <c r="AK5" s="61">
         <f>AJ5+1</f>
         <v>45663</v>
       </c>
-      <c r="AL5" s="73">
+      <c r="AL5" s="62">
         <f>AK5+1</f>
         <v>45664</v>
       </c>
-      <c r="AM5" s="73">
+      <c r="AM5" s="62">
         <f t="shared" si="0"/>
         <v>45665</v>
       </c>
-      <c r="AN5" s="73">
+      <c r="AN5" s="62">
         <f t="shared" si="0"/>
         <v>45666</v>
       </c>
-      <c r="AO5" s="73">
+      <c r="AO5" s="62">
         <f t="shared" si="0"/>
         <v>45667</v>
       </c>
-      <c r="AP5" s="73">
+      <c r="AP5" s="62">
         <f t="shared" si="0"/>
         <v>45668</v>
       </c>
-      <c r="AQ5" s="74">
+      <c r="AQ5" s="63">
         <f t="shared" si="0"/>
         <v>45669</v>
       </c>
-      <c r="AR5" s="72">
+      <c r="AR5" s="61">
         <f>AQ5+1</f>
         <v>45670</v>
       </c>
-      <c r="AS5" s="73">
+      <c r="AS5" s="62">
         <f>AR5+1</f>
         <v>45671</v>
       </c>
-      <c r="AT5" s="73">
+      <c r="AT5" s="62">
         <f t="shared" si="0"/>
         <v>45672</v>
       </c>
-      <c r="AU5" s="73">
+      <c r="AU5" s="62">
         <f t="shared" si="0"/>
         <v>45673</v>
       </c>
-      <c r="AV5" s="73">
+      <c r="AV5" s="62">
         <f t="shared" si="0"/>
         <v>45674</v>
       </c>
-      <c r="AW5" s="73">
+      <c r="AW5" s="62">
         <f t="shared" si="0"/>
         <v>45675</v>
       </c>
-      <c r="AX5" s="74">
+      <c r="AX5" s="63">
         <f t="shared" si="0"/>
         <v>45676</v>
       </c>
-      <c r="AY5" s="72">
+      <c r="AY5" s="61">
         <f>AX5+1</f>
         <v>45677</v>
       </c>
-      <c r="AZ5" s="73">
+      <c r="AZ5" s="62">
         <f>AY5+1</f>
         <v>45678</v>
       </c>
-      <c r="BA5" s="73">
+      <c r="BA5" s="62">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45679</v>
       </c>
-      <c r="BB5" s="73">
+      <c r="BB5" s="62">
         <f t="shared" si="1"/>
         <v>45680</v>
       </c>
-      <c r="BC5" s="73">
+      <c r="BC5" s="62">
         <f t="shared" si="1"/>
         <v>45681</v>
       </c>
-      <c r="BD5" s="73">
+      <c r="BD5" s="62">
         <f t="shared" si="1"/>
         <v>45682</v>
       </c>
-      <c r="BE5" s="74">
+      <c r="BE5" s="63">
         <f t="shared" si="1"/>
         <v>45683</v>
       </c>
-      <c r="BF5" s="72">
+      <c r="BF5" s="61">
         <f>BE5+1</f>
         <v>45684</v>
       </c>
-      <c r="BG5" s="73">
+      <c r="BG5" s="62">
         <f>BF5+1</f>
         <v>45685</v>
       </c>
-      <c r="BH5" s="73">
+      <c r="BH5" s="62">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45686</v>
       </c>
-      <c r="BI5" s="73">
+      <c r="BI5" s="62">
         <f t="shared" si="2"/>
         <v>45687</v>
       </c>
-      <c r="BJ5" s="73">
+      <c r="BJ5" s="62">
         <f t="shared" si="2"/>
         <v>45688</v>
       </c>
-      <c r="BK5" s="73">
+      <c r="BK5" s="62">
         <f t="shared" si="2"/>
         <v>45689</v>
       </c>
-      <c r="BL5" s="74">
+      <c r="BL5" s="63">
         <f t="shared" si="2"/>
         <v>45690</v>
       </c>
-      <c r="BM5" s="72">
+      <c r="BM5" s="61">
         <f>BL5+1</f>
         <v>45691</v>
       </c>
-      <c r="BN5" s="73">
+      <c r="BN5" s="62">
         <f>BM5+1</f>
         <v>45692</v>
       </c>
-      <c r="BO5" s="73">
+      <c r="BO5" s="62">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
         <v>45693</v>
       </c>
-      <c r="BP5" s="73">
+      <c r="BP5" s="62">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
         <v>45694</v>
       </c>
-      <c r="BQ5" s="73">
+      <c r="BQ5" s="62">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
         <v>45695</v>
       </c>
-      <c r="BR5" s="73">
+      <c r="BR5" s="62">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
         <v>45696</v>
       </c>
-      <c r="BS5" s="74">
+      <c r="BS5" s="63">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
         <v>45697</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="shared" ref="I6:AN6" si="8">LEFT(TEXT(I5,"TTTT"),1)</f>
@@ -2888,10 +2706,10 @@
       </c>
     </row>
     <row r="7" spans="1:71" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="41"/>
+      <c r="A7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="31"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2955,19 +2773,19 @@
       <c r="BL7" s="25"/>
     </row>
     <row r="8" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>17</v>
+      <c r="A8" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
-        <f t="shared" ref="H8:H33" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H32" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="25"/>
@@ -3035,23 +2853,23 @@
       <c r="BS8" s="25"/>
     </row>
     <row r="9" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>19</v>
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="51">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="51">
         <v>45646</v>
       </c>
       <c r="G9" s="12"/>
@@ -3124,23 +2942,23 @@
       <c r="BS9" s="25"/>
     </row>
     <row r="10" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>19</v>
+      <c r="A10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="51">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="51">
         <v>45646</v>
       </c>
       <c r="G10" s="12"/>
@@ -3213,21 +3031,21 @@
       <c r="BS10" s="25"/>
     </row>
     <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>19</v>
+      <c r="A11" s="28"/>
+      <c r="B11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="51">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="51">
         <v>45646</v>
       </c>
       <c r="G11" s="12"/>
@@ -3300,21 +3118,21 @@
       <c r="BS11" s="25"/>
     </row>
     <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>19</v>
+      <c r="A12" s="28"/>
+      <c r="B12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="51">
         <f>Projektanfang</f>
         <v>45639</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="51">
         <v>45646</v>
       </c>
       <c r="G12" s="12"/>
@@ -3387,16 +3205,16 @@
       <c r="BS12" s="25"/>
     </row>
     <row r="13" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="str">
         <f t="shared" si="17"/>
@@ -3467,20 +3285,20 @@
       <c r="BS13" s="25"/>
     </row>
     <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>19</v>
+      <c r="A14" s="29"/>
+      <c r="B14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="54">
         <v>45639</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="54">
         <v>45667</v>
       </c>
       <c r="G14" s="12"/>
@@ -3553,20 +3371,20 @@
       <c r="BS14" s="25"/>
     </row>
     <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>19</v>
+      <c r="A15" s="28"/>
+      <c r="B15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="54">
         <v>45639</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="54">
         <v>45667</v>
       </c>
       <c r="G15" s="12"/>
@@ -3639,20 +3457,20 @@
       <c r="BS15" s="25"/>
     </row>
     <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>19</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="54">
         <v>45639</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="54">
         <v>45667</v>
       </c>
       <c r="G16" s="12"/>
@@ -3725,20 +3543,20 @@
       <c r="BS16" s="25"/>
     </row>
     <row r="17" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>19</v>
+      <c r="A17" s="28"/>
+      <c r="B17" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="54">
         <v>45639</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="54">
         <v>45667</v>
       </c>
       <c r="G17" s="12"/>
@@ -3811,20 +3629,20 @@
       <c r="BS17" s="25"/>
     </row>
     <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>19</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="54">
         <v>45639</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="54">
         <v>45667</v>
       </c>
       <c r="G18" s="12"/>
@@ -3897,16 +3715,16 @@
       <c r="BS18" s="25"/>
     </row>
     <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="str">
         <f t="shared" si="17"/>
@@ -3977,20 +3795,20 @@
       <c r="BS19" s="25"/>
     </row>
     <row r="20" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>19</v>
+      <c r="A20" s="28"/>
+      <c r="B20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="21">
         <v>0</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="57">
         <v>45646</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="57">
         <v>45681</v>
       </c>
       <c r="G20" s="12"/>
@@ -4063,20 +3881,20 @@
       <c r="BS20" s="25"/>
     </row>
     <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>19</v>
       </c>
       <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="57">
         <v>45646</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="57">
         <v>45681</v>
       </c>
       <c r="G21" s="12"/>
@@ -4149,20 +3967,20 @@
       <c r="BS21" s="25"/>
     </row>
     <row r="22" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>19</v>
+      <c r="A22" s="28"/>
+      <c r="B22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="21">
         <v>0</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="57">
         <v>45646</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="57">
         <v>45681</v>
       </c>
       <c r="G22" s="12"/>
@@ -4235,20 +4053,20 @@
       <c r="BS22" s="25"/>
     </row>
     <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>19</v>
+      <c r="A23" s="28"/>
+      <c r="B23" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="57">
         <v>45646</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="57">
         <v>45681</v>
       </c>
       <c r="G23" s="12"/>
@@ -4321,26 +4139,20 @@
       <c r="BS23" s="25"/>
     </row>
     <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
-        <v>45646</v>
-      </c>
-      <c r="F24" s="68">
-        <v>45681</v>
-      </c>
+      <c r="B24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12">
+      <c r="H24" s="12" t="str">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v/>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -4407,20 +4219,26 @@
       <c r="BS24" s="25"/>
     </row>
     <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="C25" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <v>45681</v>
+      </c>
+      <c r="F25" s="60">
+        <v>45693</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12" t="str">
+      <c r="H25" s="12">
         <f t="shared" si="17"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -4487,20 +4305,20 @@
       <c r="BS25" s="25"/>
     </row>
     <row r="26" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>19</v>
+      <c r="A26" s="28"/>
+      <c r="B26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="24">
         <v>0</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="60">
         <v>45681</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="60">
         <v>45693</v>
       </c>
       <c r="G26" s="12"/>
@@ -4573,20 +4391,20 @@
       <c r="BS26" s="25"/>
     </row>
     <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>19</v>
+      <c r="A27" s="28"/>
+      <c r="B27" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="24">
         <v>0</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="60">
         <v>45681</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="60">
         <v>45693</v>
       </c>
       <c r="G27" s="12"/>
@@ -4659,26 +4477,20 @@
       <c r="BS27" s="25"/>
     </row>
     <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="71">
-        <v>45681</v>
-      </c>
-      <c r="F28" s="71">
-        <v>45693</v>
-      </c>
+      <c r="A28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="12">
+      <c r="H28" s="12" t="str">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -4745,20 +4557,28 @@
       <c r="BS28" s="25"/>
     </row>
     <row r="29" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
+      <c r="A29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="51">
+        <v>45681</v>
+      </c>
+      <c r="F29" s="51">
+        <v>45688</v>
+      </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12" t="str">
+      <c r="H29" s="12">
         <f t="shared" si="17"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -4825,29 +4645,24 @@
       <c r="BS29" s="25"/>
     </row>
     <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>19</v>
+      <c r="A30" s="29"/>
+      <c r="B30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="51">
         <v>45681</v>
       </c>
-      <c r="F30" s="62">
+      <c r="F30" s="51">
         <v>45688</v>
       </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="12">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
+      <c r="H30" s="12"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -4913,20 +4728,20 @@
       <c r="BS30" s="25"/>
     </row>
     <row r="31" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>19</v>
+      <c r="A31" s="29"/>
+      <c r="B31" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="51">
         <v>45681</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="51">
         <v>45688</v>
       </c>
       <c r="G31" s="12"/>
@@ -4996,24 +4811,21 @@
       <c r="BS31" s="25"/>
     </row>
     <row r="32" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="62">
-        <v>45681</v>
-      </c>
-      <c r="F32" s="62">
-        <v>45688</v>
-      </c>
+      <c r="A32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -5079,21 +4891,24 @@
       <c r="BS32" s="25"/>
     </row>
     <row r="33" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="54">
+        <v>45688</v>
+      </c>
+      <c r="F33" s="54">
+        <v>45693</v>
+      </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="H33" s="12"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -5110,7 +4925,7 @@
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
       <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
+      <c r="Y33" s="26"/>
       <c r="Z33" s="25"/>
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
@@ -5159,20 +4974,20 @@
       <c r="BS33" s="25"/>
     </row>
     <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="A34" s="28"/>
+      <c r="B34" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="65">
         <v>0</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="54">
         <v>45688</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="54">
         <v>45693</v>
       </c>
       <c r="G34" s="12"/>
@@ -5242,20 +5057,20 @@
       <c r="BS34" s="25"/>
     </row>
     <row r="35" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="76">
+      <c r="A35" s="28"/>
+      <c r="B35" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="65">
         <v>0</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="54">
         <v>45688</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="54">
         <v>45693</v>
       </c>
       <c r="G35" s="12"/>
@@ -5324,96 +5139,13 @@
       <c r="BR35" s="25"/>
       <c r="BS35" s="25"/>
     </row>
-    <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="76">
-        <v>0</v>
-      </c>
-      <c r="E36" s="65">
-        <v>45688</v>
-      </c>
-      <c r="F36" s="65">
-        <v>45693</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="25"/>
-      <c r="AZ36" s="25"/>
-      <c r="BA36" s="25"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
-      <c r="BD36" s="25"/>
-      <c r="BE36" s="25"/>
-      <c r="BF36" s="25"/>
-      <c r="BG36" s="25"/>
-      <c r="BH36" s="25"/>
-      <c r="BI36" s="25"/>
-      <c r="BJ36" s="25"/>
-      <c r="BK36" s="25"/>
-      <c r="BL36" s="25"/>
-      <c r="BM36" s="25"/>
-      <c r="BN36" s="25"/>
-      <c r="BO36" s="25"/>
-      <c r="BP36" s="25"/>
-      <c r="BQ36" s="25"/>
-      <c r="BR36" s="25"/>
-      <c r="BS36" s="25"/>
+    <row r="36" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="10"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="10"/>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
-      <c r="AG38" s="25"/>
+      <c r="C37" s="11"/>
+      <c r="AG37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5430,7 +5162,7 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
+  <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5458,27 +5190,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BK34 BL34:BO34 I35:BO36">
-    <cfRule type="expression" dxfId="27" priority="162">
+  <conditionalFormatting sqref="BL33:BO33 I34:BO35 I5:BK33">
+    <cfRule type="expression" dxfId="26" priority="162">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BK34 BL34:BO34 I35:BO36">
-    <cfRule type="expression" dxfId="26" priority="157" stopIfTrue="1">
+  <conditionalFormatting sqref="BL33:BO33 I34:BO35 I7:BK33">
+    <cfRule type="expression" dxfId="25" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL17">
-    <cfRule type="expression" dxfId="25" priority="156">
+  <conditionalFormatting sqref="I7:BL17 I18:BS35">
+    <cfRule type="expression" dxfId="24" priority="156">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BS36">
-    <cfRule type="expression" dxfId="24" priority="17">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG38">
+  <conditionalFormatting sqref="AG37">
     <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
@@ -5489,12 +5216,12 @@
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL18:BP25 BQ18:BS34 BL29:BL33 BP35:BS36">
+  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL28:BL32 BP34:BS35 BL18:BP24 BQ18:BS33">
     <cfRule type="expression" dxfId="20" priority="164">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL27:BO27">
+  <conditionalFormatting sqref="BL26:BO26">
     <cfRule type="expression" dxfId="19" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
@@ -5502,7 +5229,7 @@
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL26:BP26">
+  <conditionalFormatting sqref="BL25:BP25">
     <cfRule type="expression" dxfId="17" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
@@ -5510,7 +5237,7 @@
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL28:BP28">
+  <conditionalFormatting sqref="BL27:BP27">
     <cfRule type="expression" dxfId="15" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
@@ -5518,7 +5245,7 @@
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM29:BM32">
+  <conditionalFormatting sqref="BM28:BM31">
     <cfRule type="expression" dxfId="13" priority="116">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5526,7 +5253,7 @@
       <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM33">
+  <conditionalFormatting sqref="BM32">
     <cfRule type="expression" dxfId="11" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
@@ -5539,7 +5266,7 @@
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL18:BP25 BQ18:BS34 BL29:BL33 BP35:BS36">
+  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL28:BL32 BP34:BS35 BL18:BP24 BQ18:BS33">
     <cfRule type="expression" dxfId="8" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;#REF!)</formula>
     </cfRule>
@@ -5549,7 +5276,7 @@
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN29:BN33">
+  <conditionalFormatting sqref="BN28:BN32">
     <cfRule type="expression" dxfId="6" priority="119">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5557,7 +5284,7 @@
       <formula>AND(task_end&gt;=BN$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO29:BO33">
+  <conditionalFormatting sqref="BO28:BO32">
     <cfRule type="expression" dxfId="4" priority="113">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5565,7 +5292,7 @@
       <formula>AND(task_end&gt;=BO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27 BP29:BP34">
+  <conditionalFormatting sqref="BP26 BP28:BP33">
     <cfRule type="expression" dxfId="2" priority="110">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5585,7 +5312,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5605,7 +5332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B46AF1CE-A935-4A6F-8920-2651299FB4D9}">
@@ -5625,111 +5352,6 @@
       </x14:conditionalFormattings>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="87.140625" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:2" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="28" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="28" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="28" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6053,11 +5675,18 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektvorbereitung/Zeitplan.xlsx
+++ b/Projektvorbereitung/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760ABDBE-672D-4559-AFEF-A2D6BF850BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0C130-7543-4A67-B4E3-FBFF0DAE7EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2008,8 +2008,8 @@
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="51">
         <f>Projektanfang</f>
@@ -2952,7 +2952,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="51">
         <f>Projektanfang</f>
@@ -3039,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="51">
         <f>Projektanfang</f>
@@ -3126,7 +3126,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="51">
         <f>Projektanfang</f>
@@ -3637,7 +3637,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E18" s="54">
         <v>45639</v>
@@ -5190,17 +5190,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL33:BO33 I34:BO35 I5:BK33">
+  <conditionalFormatting sqref="I5:BK33 BL33:BO33 I34:BO35">
     <cfRule type="expression" dxfId="26" priority="162">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL33:BO33 I34:BO35 I7:BK33">
+  <conditionalFormatting sqref="I7:BK33 BL33:BO33 I34:BO35">
     <cfRule type="expression" dxfId="25" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL17 I18:BS35">
+  <conditionalFormatting sqref="I18:BS35 I7:BL17">
     <cfRule type="expression" dxfId="24" priority="156">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5216,7 +5216,7 @@
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL28:BL32 BP34:BS35 BL18:BP24 BQ18:BS33">
+  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL18:BP24 BQ18:BS33 BL28:BL32 BP34:BS35">
     <cfRule type="expression" dxfId="20" priority="164">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5266,7 +5266,7 @@
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL28:BL32 BP34:BS35 BL18:BP24 BQ18:BS33">
+  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL18:BP24 BQ18:BS33 BL28:BL32 BP34:BS35">
     <cfRule type="expression" dxfId="8" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;#REF!)</formula>
     </cfRule>
@@ -5675,18 +5675,18 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektvorbereitung/Zeitplan.xlsx
+++ b/Projektvorbereitung/Zeitplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0C130-7543-4A67-B4E3-FBFF0DAE7EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5F45C-81B1-4546-B5D3-8F49F682A15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Marc + Christopher</t>
+  </si>
+  <si>
+    <t>Beginn der Erstellung des Papers</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1168,23 +1171,32 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2005,11 +2017,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,116 +2067,116 @@
       <c r="B3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="71">
+      <c r="D3" s="71"/>
+      <c r="E3" s="69">
         <v>45639</v>
       </c>
-      <c r="F3" s="71"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="66">
         <f>I5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="68">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="66">
         <f>P5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="68">
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="66">
         <f>W5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="68">
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="66">
         <f>AD5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="68">
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="66">
         <f>AK5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="68">
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="66">
         <f>AR5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="68">
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="67"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="66">
         <f>AY5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="68">
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="67"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="66">
         <f>BF5</f>
         <v>45684</v>
       </c>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="68">
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="67"/>
+      <c r="BJ4" s="67"/>
+      <c r="BK4" s="67"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="66">
         <f>BM5</f>
         <v>45691</v>
       </c>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="69"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="70"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="67"/>
+      <c r="BQ4" s="67"/>
+      <c r="BR4" s="67"/>
+      <c r="BS4" s="68"/>
     </row>
     <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
@@ -3293,7 +3305,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="54">
         <v>45639</v>
@@ -3379,7 +3391,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="54">
         <v>45639</v>
@@ -4893,95 +4905,95 @@
     <row r="33" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="43" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="65">
         <v>0</v>
       </c>
       <c r="E33" s="54">
-        <v>45688</v>
+        <v>45646</v>
       </c>
       <c r="F33" s="54">
         <v>45693</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
-      <c r="AY33" s="25"/>
-      <c r="AZ33" s="25"/>
-      <c r="BA33" s="25"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="25"/>
-      <c r="BD33" s="25"/>
-      <c r="BE33" s="25"/>
-      <c r="BF33" s="25"/>
-      <c r="BG33" s="25"/>
-      <c r="BH33" s="25"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="25"/>
-      <c r="BK33" s="25"/>
-      <c r="BL33" s="25"/>
-      <c r="BM33" s="25"/>
-      <c r="BN33" s="25"/>
-      <c r="BO33" s="25"/>
-      <c r="BP33" s="25"/>
-      <c r="BQ33" s="25"/>
-      <c r="BR33" s="25"/>
-      <c r="BS33" s="25"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="73"/>
+      <c r="BD33" s="73"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="73"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
+      <c r="BK33" s="73"/>
+      <c r="BL33" s="73"/>
+      <c r="BM33" s="73"/>
+      <c r="BN33" s="73"/>
+      <c r="BO33" s="73"/>
+      <c r="BP33" s="73"/>
+      <c r="BQ33" s="73"/>
+      <c r="BR33" s="73"/>
+      <c r="BS33" s="73"/>
     </row>
     <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="18">
         <v>0</v>
       </c>
       <c r="E34" s="54">
@@ -5059,7 +5071,7 @@
     <row r="35" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>54</v>
@@ -5139,16 +5151,104 @@
       <c r="BR35" s="25"/>
       <c r="BS35" s="25"/>
     </row>
-    <row r="36" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="F36" s="30"/>
+    <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="65">
+        <v>0</v>
+      </c>
+      <c r="E36" s="54">
+        <v>45688</v>
+      </c>
+      <c r="F36" s="54">
+        <v>45693</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="25"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="25"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="25"/>
+      <c r="BE36" s="25"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="25"/>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="25"/>
+      <c r="BK36" s="25"/>
+      <c r="BL36" s="25"/>
+      <c r="BM36" s="25"/>
+      <c r="BN36" s="25"/>
+      <c r="BO36" s="25"/>
+      <c r="BP36" s="25"/>
+      <c r="BQ36" s="25"/>
+      <c r="BR36" s="25"/>
+      <c r="BS36" s="25"/>
     </row>
-    <row r="37" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="11"/>
-      <c r="AG37" s="25"/>
+    <row r="38" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="11"/>
+      <c r="AG39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5156,13 +5256,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5190,22 +5285,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BK33 BL33:BO33 I34:BO35">
+  <conditionalFormatting sqref="BL34:BO34 I5:BK34 I35:BO36 I33:BO33">
     <cfRule type="expression" dxfId="26" priority="162">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BK33 BL33:BO33 I34:BO35">
+  <conditionalFormatting sqref="BL34:BO34 I7:BK34 I35:BO36 I33:BO33">
     <cfRule type="expression" dxfId="25" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BS35 I7:BL17">
+  <conditionalFormatting sqref="I7:BL17 I18:BS36">
     <cfRule type="expression" dxfId="24" priority="156">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
+  <conditionalFormatting sqref="AG39">
     <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
@@ -5216,7 +5311,7 @@
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL18:BP24 BQ18:BS33 BL28:BL32 BP34:BS35">
+  <conditionalFormatting sqref="BL5:BL17 BM8:BS17 BL18:BP24 BL28:BL33 BQ18:BS34 BP35:BS36 BP33:BS33">
     <cfRule type="expression" dxfId="20" priority="164">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5253,7 +5348,7 @@
       <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM32">
+  <conditionalFormatting sqref="BM32:BM33">
     <cfRule type="expression" dxfId="11" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
@@ -5266,7 +5361,7 @@
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL18:BP24 BQ18:BS33 BL28:BL32 BP34:BS35">
+  <conditionalFormatting sqref="BM8:BS17 BL7:BL17 BL18:BP24 BL28:BL33 BQ18:BS34 BP35:BS36 BP33:BS33">
     <cfRule type="expression" dxfId="8" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;#REF!)</formula>
     </cfRule>
@@ -5276,7 +5371,7 @@
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN28:BN32">
+  <conditionalFormatting sqref="BN28:BN33">
     <cfRule type="expression" dxfId="6" priority="119">
       <formula>AND(TODAY()&gt;=BN$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5284,7 +5379,7 @@
       <formula>AND(task_end&gt;=BN$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28:BO32">
+  <conditionalFormatting sqref="BO28:BO33">
     <cfRule type="expression" dxfId="4" priority="113">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5292,7 +5387,7 @@
       <formula>AND(task_end&gt;=BO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26 BP28:BP33">
+  <conditionalFormatting sqref="BP26 BP28:BP34">
     <cfRule type="expression" dxfId="2" priority="110">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -5332,7 +5427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B46AF1CE-A935-4A6F-8920-2651299FB4D9}">
@@ -5376,15 +5471,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5672,6 +5758,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -5692,14 +5787,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5718,4 +5805,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>